--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1869.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1869.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1026157571915395</v>
+        <v>1.962330102920532</v>
       </c>
       <c r="B1">
-        <v>0.09168930344079081</v>
+        <v>2.577364206314087</v>
       </c>
       <c r="C1">
-        <v>0.08748510206527761</v>
+        <v>2.338207006454468</v>
       </c>
       <c r="D1">
-        <v>0.1042957286650256</v>
+        <v>2.465882062911987</v>
       </c>
       <c r="E1">
-        <v>0.1464078271187497</v>
+        <v>3.186347723007202</v>
       </c>
     </row>
   </sheetData>
